--- a/evaluation/results/hybrid/pca/one_svm/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8647686832740213</v>
+        <v>0.5088967971530249</v>
       </c>
       <c r="C2">
-        <v>0.05555555555555555</v>
+        <v>0.07823129251700681</v>
       </c>
       <c r="D2">
-        <v>0.1071428571428571</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="E2">
-        <v>0.07317073170731707</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F2">
-        <v>0.09036144578313253</v>
+        <v>0.2832512315270936</v>
       </c>
       <c r="G2">
-        <v>0.103448275862069</v>
+        <v>0.6016096579476862</v>
       </c>
       <c r="H2">
-        <v>0.5058186195826646</v>
+        <v>0.7286650615302301</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>51</v>
+        <v>271</v>
       </c>
       <c r="K2">
-        <v>483</v>
+        <v>263</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9507874015748031</v>
+        <v>0.9813432835820896</v>
       </c>
       <c r="C2">
-        <v>0.9044943820224719</v>
+        <v>0.4925093632958801</v>
       </c>
       <c r="D2">
-        <v>0.927063339731286</v>
+        <v>0.6558603491271821</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.05555555555555555</v>
+        <v>0.07823129251700681</v>
       </c>
       <c r="C3">
-        <v>0.1071428571428571</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="D3">
-        <v>0.07317073170731707</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8647686832740213</v>
+        <v>0.5088967971530249</v>
       </c>
       <c r="C4">
-        <v>0.8647686832740213</v>
+        <v>0.5088967971530249</v>
       </c>
       <c r="D4">
-        <v>0.8647686832740213</v>
+        <v>0.5088967971530249</v>
       </c>
       <c r="E4">
-        <v>0.8647686832740213</v>
+        <v>0.5088967971530249</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5031714785651793</v>
+        <v>0.5297872880495482</v>
       </c>
       <c r="C5">
-        <v>0.5058186195826645</v>
+        <v>0.6569689673622258</v>
       </c>
       <c r="D5">
-        <v>0.5001170357193016</v>
+        <v>0.3993587459921625</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9061851031966199</v>
+        <v>0.9363483801126548</v>
       </c>
       <c r="C6">
-        <v>0.8647686832740213</v>
+        <v>0.5088967971530249</v>
       </c>
       <c r="D6">
-        <v>0.8845206475165687</v>
+        <v>0.6303014705229808</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>483</v>
+        <v>263</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
